--- a/pred_ohlcv/54_21/2020-01-21 MBL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 MBL ohlcv.xlsx
@@ -1406,7 +1406,7 @@
         <v>-226803.4679</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-188373.4679</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-206206.4679</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-206206.4679</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-252287.4679</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-191420.942</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-229019.942</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-229019.942</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-229019.942</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-187419.942</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-226309.942</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-139492.942</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-57555.94200000004</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-100718.942</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-144213.942</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-187167.942</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-228609.942</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-228609.942</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-248332.942</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-194501.942</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-246394.5006</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>372558.7793000001</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>416904.7793000001</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>416904.7793000001</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>416904.7793000001</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>383539.7793000001</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>383539.7793000001</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>419262.7793000001</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>419262.7793000001</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>394964.7793000001</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>394964.7793000001</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>430704.7793000001</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>389512.7793000001</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>424918.7793000001</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>461697.7793000001</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>461697.7793000001</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>461697.7793000001</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>433000.7793000001</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>433000.7793000001</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>383643.7793000001</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>383643.7793000001</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>383643.7793000001</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>383643.7793000001</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>383643.7793000001</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>383643.7793000001</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>383643.7793000001</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>346384.7793000001</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-1227208.425</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-767092.7863999999</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-806805.7863999999</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-770009.7863999999</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-918843.3517999998</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-918843.3517999998</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-918843.3517999998</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-918843.3517999998</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-1013417.3518</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-766433.4594999999</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-922007.8318999999</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-964094.8318999999</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-995754.8318999999</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-926202.8318999999</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-926202.8318999999</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-884176.8318999999</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-928171.8318999999</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-958599.8318999999</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-1014461.8319</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-1039746.8319</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-1068273.8319</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-1107256.7429</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-1004951.7429</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-1025998.7429</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-1025998.7429</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-995409.7429</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-1031081.7429</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-1108833.1847</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-1132236.1847</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-1174321.1847</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-1146299.1847</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-1190190.1847</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-1228900.1847</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-1252864.1847</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-1273736.2567</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-1250561.2567</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-1190405.2567</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-1190405.2567</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-1155304.2567</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-1715821.8637</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-1715821.8637</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-1670610.8637</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-1631083.8637</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-1631083.8637</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-1587111.8637</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-1587111.8637</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-1542672.8637</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-1569069.8637</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-1605041.8637</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-1605041.8637</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-1574312.8637</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-1616026.8637</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-1616026.8637</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-1730576.9129</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-1680419.9129</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-1701833.9129</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-1748604.9129</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-1776393.9129</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-1808508.9129</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-1845006.9129</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-1998135.3254</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-2068822.3254</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-1994412.3254</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-1954430.3254</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-1954430.3254</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-2551800.1757</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-2500913.1757</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-2469391.1757</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-2453146.1757</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-2505271.1757</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-2463328.1757</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>-2432798.1757</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>-2806410.6751</v>
       </c>
       <c r="H976">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-2806410.6751</v>
       </c>
       <c r="H977">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-2848580.7818</v>
       </c>
       <c r="H997">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>-2716129.4157</v>
       </c>
       <c r="H1005">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>-2679658.4157</v>
       </c>
       <c r="H1035">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>-2655365.4157</v>
       </c>
       <c r="H1036">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>-2655365.4157</v>
       </c>
       <c r="H1037">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>-2695031.4157</v>
       </c>
       <c r="H1038">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>-2695031.4157</v>
       </c>
       <c r="H1039">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>-2659303.4157</v>
       </c>
       <c r="H1040">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>-2632115.4157</v>
       </c>
       <c r="H1041">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>-2676706.4157</v>
       </c>
       <c r="H1042">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>-2634135.4157</v>
       </c>
       <c r="H1043">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>-2634135.4157</v>
       </c>
       <c r="H1044">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>-2594876.4157</v>
       </c>
       <c r="H1045">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>-2658009.4157</v>
       </c>
       <c r="H1048">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>-2698049.4157</v>
       </c>
       <c r="H1049">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>-2676589.4157</v>
       </c>
       <c r="H1050">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>-2626146.4157</v>
       </c>
       <c r="H1051">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1052" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-21 MBL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 MBL ohlcv.xlsx
@@ -1406,7 +1406,7 @@
         <v>-226803.4679</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-188373.4679</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-206206.4679</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-206206.4679</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-252287.4679</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-191420.942</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-229019.942</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-229019.942</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-229019.942</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-187419.942</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-226309.942</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-97611.94200000004</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-139492.942</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-57555.94200000004</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-93590.94200000004</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-137873.942</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-137873.942</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-100718.942</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-228609.942</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-228609.942</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-248332.942</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-194501.942</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-246394.5006</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>372558.7793000001</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>416904.7793000001</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>416904.7793000001</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>416904.7793000001</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>383539.7793000001</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>383539.7793000001</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>419262.7793000001</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>419262.7793000001</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>394964.7793000001</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>394964.7793000001</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>430704.7793000001</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>389512.7793000001</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>424918.7793000001</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>461697.7793000001</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>461697.7793000001</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>461697.7793000001</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>433000.7793000001</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>433000.7793000001</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>383643.7793000001</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>383643.7793000001</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>383643.7793000001</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>383643.7793000001</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>383643.7793000001</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>383643.7793000001</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>383643.7793000001</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>346384.7793000001</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-1227208.425</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-767092.7863999999</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-806805.7863999999</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-770009.7863999999</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-918843.3517999998</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-918843.3517999998</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-918843.3517999998</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-918843.3517999998</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-962429.3517999998</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-920995.8318999999</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-920995.8318999999</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-884856.8318999999</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-922007.8318999999</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-964094.8318999999</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-995754.8318999999</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-995754.8318999999</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-995754.8318999999</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-970609.8318999999</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-926202.8318999999</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-926202.8318999999</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-884176.8318999999</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-928171.8318999999</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-958599.8318999999</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-1014461.8319</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-1169337.1847</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-1139988.1847</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-1110923.1847</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-1066806.1847</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-1108833.1847</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-1132236.1847</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-1174321.1847</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-1146299.1847</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-1190190.1847</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-1228900.1847</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-1252864.1847</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-1216258.1847</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-1273736.2567</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-1250561.2567</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-1212976.2567</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-1190405.2567</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-1190405.2567</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-1155304.2567</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-1715821.8637</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-1715821.8637</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-1692389.8637</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-1692389.8637</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-1670610.8637</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-1631083.8637</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-1631083.8637</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-1587111.8637</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-1587111.8637</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-1542672.8637</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-1569069.8637</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-1605041.8637</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-1605041.8637</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-1574312.8637</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-1616026.8637</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-1616026.8637</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-1730576.9129</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-1680419.9129</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-1701833.9129</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-1748604.9129</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-1776393.9129</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-1808508.9129</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-1845006.9129</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-1896539.9129</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-1874955.9129</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-1854992.9129</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-1854992.9129</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-1860239.9129</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-1982471.5349</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-1958921.5349</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-2044474.3254</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-2004213.3254</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-2023771.3254</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-1998135.3254</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-2045466.3254</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-2045466.3254</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-1917401.3254</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-1949544.3254</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-1899956.3254</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-2551800.1757</v>
       </c>
       <c r="H917">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-2500913.1757</v>
       </c>
       <c r="H918">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-2469391.1757</v>
       </c>
       <c r="H919">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-2453146.1757</v>
       </c>
       <c r="H921">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-2505271.1757</v>
       </c>
       <c r="H923">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-2463328.1757</v>
       </c>
       <c r="H924">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>-2432798.1757</v>
       </c>
       <c r="H925">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-2806410.6751</v>
       </c>
       <c r="H978">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-2764227.6751</v>
       </c>
       <c r="H979">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-2848580.7818</v>
       </c>
       <c r="H997">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>-2716129.4157</v>
       </c>
       <c r="H1005">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>-2676287.4157</v>
       </c>
       <c r="H1006">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>-2676287.4157</v>
       </c>
       <c r="H1007">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>-2715103.4157</v>
       </c>
       <c r="H1008">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>-2715103.4157</v>
       </c>
       <c r="H1009">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>-2678238.4157</v>
       </c>
       <c r="H1010">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>-2712402.4157</v>
       </c>
       <c r="H1011">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>-2712402.4157</v>
       </c>
       <c r="H1012">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-2712402.4157</v>
       </c>
       <c r="H1013">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>-2712402.4157</v>
       </c>
       <c r="H1014">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>-2712402.4157</v>
       </c>
       <c r="H1016">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>-2712402.4157</v>
       </c>
       <c r="H1017">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>-2712402.4157</v>
       </c>
       <c r="H1018">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>-2712402.4157</v>
       </c>
       <c r="H1019">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>-2712402.4157</v>
       </c>
       <c r="H1020">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>-2661941.4157</v>
       </c>
       <c r="H1021">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>-2661941.4157</v>
       </c>
       <c r="H1022">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>-2661941.4157</v>
       </c>
       <c r="H1023">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>-2706715.4157</v>
       </c>
       <c r="H1024">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>-2706715.4157</v>
       </c>
       <c r="H1025">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>-2664625.4157</v>
       </c>
       <c r="H1026">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>-2637371.4157</v>
       </c>
       <c r="H1027">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>-2637371.4157</v>
       </c>
       <c r="H1028">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>-2584574.4157</v>
       </c>
       <c r="H1029">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-2610735.4157</v>
       </c>
       <c r="H1030">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>-2579788.4157</v>
       </c>
       <c r="H1031">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>-2598567.4157</v>
       </c>
       <c r="H1032">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>-2598567.4157</v>
       </c>
       <c r="H1033">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>-2634202.4157</v>
       </c>
       <c r="H1034">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>-2679658.4157</v>
       </c>
       <c r="H1035">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>-2655365.4157</v>
       </c>
       <c r="H1036">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>-2655365.4157</v>
       </c>
       <c r="H1037">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>-2695031.4157</v>
       </c>
       <c r="H1038">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>-2695031.4157</v>
       </c>
       <c r="H1039">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>-2659303.4157</v>
       </c>
       <c r="H1040">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>-2632115.4157</v>
       </c>
       <c r="H1041">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>-2676706.4157</v>
       </c>
       <c r="H1042">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>-2634135.4157</v>
       </c>
       <c r="H1043">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>-2634135.4157</v>
       </c>
       <c r="H1044">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>-2594876.4157</v>
       </c>
       <c r="H1045">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>-2631042.4157</v>
       </c>
       <c r="H1046">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>-2682883.4157</v>
       </c>
       <c r="H1047">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>-2658009.4157</v>
       </c>
       <c r="H1048">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>-2698049.4157</v>
       </c>
       <c r="H1049">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>-2676589.4157</v>
       </c>
       <c r="H1050">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>-2626146.4157</v>
       </c>
       <c r="H1051">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>-2661943.4157</v>
       </c>
       <c r="H1052">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>-2630837.4157</v>
       </c>
       <c r="H1053">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>-2676274.4157</v>
       </c>
       <c r="H1054">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>-2624332.4157</v>
       </c>
       <c r="H1055">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>-2588300.4157</v>
       </c>
       <c r="H1056">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
